--- a/InputList/FullBand/InputList.xlsx
+++ b/InputList/FullBand/InputList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\TechnicalDocumentation\Input List\FullBand\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\TechnicalDocumentation\InputList\FullBand\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{4CEF91C4-2EFC-4BF5-9621-AFEB67DBAD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EC463F-B33F-49FE-9943-A03ECF7582EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
+    <workbookView xWindow="38280" yWindow="-7425" windowWidth="16440" windowHeight="29040" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
   </bookViews>
   <sheets>
     <sheet name="Channels" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,6 @@
     <definedName name="Stand">Channels!$H$4:$H$33</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -588,54 +587,6 @@
     <t>D10</t>
   </si>
   <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>B9</t>
-  </si>
-  <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>B11</t>
-  </si>
-  <si>
-    <t>B12</t>
-  </si>
-  <si>
-    <t>B13</t>
-  </si>
-  <si>
-    <t>B14</t>
-  </si>
-  <si>
-    <t>B15</t>
-  </si>
-  <si>
-    <t>B16</t>
-  </si>
-  <si>
     <t>USR 2</t>
   </si>
   <si>
@@ -661,6 +612,54 @@
   <si>
     <t>Kenzi
 Acstc</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>A14</t>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <t>A16</t>
   </si>
 </sst>
 </file>
@@ -1197,11 +1196,17 @@
     <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1217,23 +1222,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -1759,55 +1758,55 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.81640625" customWidth="1"/>
+    <col min="3" max="3" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" customWidth="1"/>
-    <col min="11" max="13" width="7.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.81640625" customWidth="1"/>
+    <col min="11" max="13" width="7.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="e" vm="1">
+    <row r="1" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="47" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="47" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
       <c r="I1" s="8" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
+    <row r="2" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
       <c r="I2" s="9" t="str">
         <f ca="1">"Date Updated: "&amp;TEXT(TODAY(),"yyyy.mm.dd")</f>
-        <v>Date Updated: 2026.02.08</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Date Updated: 2026.02.11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>37</v>
       </c>
@@ -1836,11 +1835,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+    <row r="4" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="53" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="15">
@@ -1865,9 +1864,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
+    <row r="5" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
       <c r="C5" s="17">
         <v>2</v>
       </c>
@@ -1890,9 +1889,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50"/>
+    <row r="6" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="52"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="15">
         <v>3</v>
       </c>
@@ -1913,9 +1912,9 @@
       </c>
       <c r="I6" s="16"/>
     </row>
-    <row r="7" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
-      <c r="B7" s="50"/>
+    <row r="7" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="52"/>
+      <c r="B7" s="53"/>
       <c r="C7" s="17">
         <v>4</v>
       </c>
@@ -1938,9 +1937,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
-      <c r="B8" s="50"/>
+    <row r="8" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="52"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="15">
         <v>5</v>
       </c>
@@ -1963,9 +1962,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
-      <c r="B9" s="50"/>
+    <row r="9" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="52"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="17">
         <v>6</v>
       </c>
@@ -1988,9 +1987,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
-      <c r="B10" s="50"/>
+    <row r="10" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="52"/>
+      <c r="B10" s="53"/>
       <c r="C10" s="15">
         <v>7</v>
       </c>
@@ -2013,9 +2012,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
-      <c r="B11" s="50"/>
+    <row r="11" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="52"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="17">
         <v>8</v>
       </c>
@@ -2038,9 +2037,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
-      <c r="B12" s="50"/>
+    <row r="12" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="52"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="15">
         <v>9</v>
       </c>
@@ -2063,9 +2062,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
-      <c r="B13" s="50"/>
+    <row r="13" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="52"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="17">
         <v>10</v>
       </c>
@@ -2088,7 +2087,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="19">
@@ -2096,14 +2095,14 @@
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
-      <c r="F14" s="43" t="s">
+      <c r="F14" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-    </row>
-    <row r="15" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+    </row>
+    <row r="15" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="19">
@@ -2111,14 +2110,14 @@
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
-      <c r="F15" s="43" t="s">
+      <c r="F15" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-    </row>
-    <row r="16" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+    </row>
+    <row r="16" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="19">
@@ -2126,25 +2125,25 @@
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-    </row>
-    <row r="17" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="51" t="s">
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+    </row>
+    <row r="17" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="44" t="s">
         <v>133</v>
       </c>
       <c r="C17" s="21">
         <v>14</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E17" s="22"/>
       <c r="F17" s="22" t="s">
@@ -2160,17 +2159,17 @@
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
-      <c r="B18" s="52"/>
+    <row r="18" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="43"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="23">
         <v>15</v>
       </c>
       <c r="D18" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18" s="24" t="s">
         <v>163</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>179</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>102</v>
@@ -2183,7 +2182,7 @@
       </c>
       <c r="I18" s="24"/>
     </row>
-    <row r="19" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="19">
@@ -2191,14 +2190,14 @@
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
-      <c r="F19" s="43" t="s">
+      <c r="F19" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-    </row>
-    <row r="20" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+    </row>
+    <row r="20" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="42" t="s">
         <v>57</v>
       </c>
@@ -2209,7 +2208,7 @@
         <v>17</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="E20" s="25" t="s">
         <v>75</v>
@@ -2227,21 +2226,21 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="53" t="s">
+    <row r="21" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="45" t="s">
         <v>134</v>
       </c>
       <c r="C21" s="26">
         <v>18</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="F21" s="27" t="s">
         <v>1</v>
@@ -2256,14 +2255,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
-      <c r="B22" s="53"/>
+    <row r="22" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
       <c r="C22" s="28">
         <v>19</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="E22" s="29" t="s">
         <v>26</v>
@@ -2279,14 +2278,14 @@
       </c>
       <c r="I22" s="29"/>
     </row>
-    <row r="23" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
-      <c r="B23" s="53"/>
+    <row r="23" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
       <c r="C23" s="26">
         <v>20</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="E23" s="27" t="s">
         <v>26</v>
@@ -2302,14 +2301,14 @@
       </c>
       <c r="I23" s="27"/>
     </row>
-    <row r="24" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
-      <c r="B24" s="53"/>
+    <row r="24" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="28">
         <v>21</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E24" s="29" t="s">
         <v>77</v>
@@ -2325,7 +2324,7 @@
       </c>
       <c r="I24" s="29"/>
     </row>
-    <row r="25" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="19">
@@ -2333,31 +2332,31 @@
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
-      <c r="F25" s="43" t="s">
+      <c r="F25" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="G25" s="43" t="s">
+      <c r="G25" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="H25" s="43" t="s">
+      <c r="H25" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="I25" s="43" t="s">
+      <c r="I25" s="51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="54" t="s">
+    <row r="26" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="46" t="s">
         <v>142</v>
       </c>
       <c r="C26" s="37">
         <v>23</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="E26" s="38" t="s">
         <v>76</v>
@@ -2375,17 +2374,17 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
+    <row r="27" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
       <c r="C27" s="39">
         <v>24</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="E27" s="40" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="F27" s="40" t="s">
         <v>150</v>
@@ -2398,17 +2397,17 @@
       </c>
       <c r="I27" s="40"/>
     </row>
-    <row r="28" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="54"/>
-      <c r="B28" s="54"/>
+    <row r="28" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
       <c r="C28" s="37">
         <v>25</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="E28" s="38" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="F28" s="38" t="s">
         <v>151</v>
@@ -2421,14 +2420,14 @@
       </c>
       <c r="I28" s="38"/>
     </row>
-    <row r="29" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="54"/>
-      <c r="B29" s="54"/>
+    <row r="29" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
       <c r="C29" s="39">
         <v>26</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E29" s="40" t="s">
         <v>131</v>
@@ -2444,7 +2443,7 @@
       </c>
       <c r="I29" s="40"/>
     </row>
-    <row r="30" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="55" t="s">
         <v>59</v>
       </c>
@@ -2455,7 +2454,7 @@
         <v>27</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E30" s="30" t="s">
         <v>78</v>
@@ -2473,14 +2472,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="55"/>
       <c r="B31" s="56"/>
       <c r="C31" s="31">
         <v>28</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="E31" s="31" t="s">
         <v>79</v>
@@ -2496,14 +2495,14 @@
       </c>
       <c r="I31" s="31"/>
     </row>
-    <row r="32" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="55"/>
       <c r="B32" s="56"/>
       <c r="C32" s="30">
         <v>29</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="E32" s="30" t="s">
         <v>80</v>
@@ -2519,17 +2518,17 @@
       </c>
       <c r="I32" s="30"/>
     </row>
-    <row r="33" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="55"/>
       <c r="B33" s="56"/>
       <c r="C33" s="31">
         <v>30</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="F33" s="31" t="s">
         <v>32</v>
@@ -2542,7 +2541,7 @@
       </c>
       <c r="I33" s="31"/>
     </row>
-    <row r="34" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="19">
@@ -2550,12 +2549,12 @@
       </c>
       <c r="D34" s="20"/>
       <c r="E34" s="20"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-    </row>
-    <row r="35" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+    </row>
+    <row r="35" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="34" t="s">
         <v>127</v>
       </c>
@@ -2566,7 +2565,7 @@
         <v>32</v>
       </c>
       <c r="D35" s="36" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="E35" s="36"/>
       <c r="F35" s="36" t="s">
@@ -2582,8 +2581,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="44" t="s">
+    <row r="36" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="54" t="s">
         <v>47</v>
       </c>
       <c r="B36" s="11" t="s">
@@ -2609,68 +2608,68 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
+    <row r="37" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="54"/>
       <c r="B37" s="41"/>
       <c r="C37" s="19">
         <v>34</v>
       </c>
       <c r="D37" s="20"/>
       <c r="E37" s="20"/>
-      <c r="F37" s="43" t="s">
+      <c r="F37" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-    </row>
-    <row r="38" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+    </row>
+    <row r="38" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="54"/>
       <c r="B38" s="41"/>
       <c r="C38" s="19">
         <v>35</v>
       </c>
       <c r="D38" s="20"/>
       <c r="E38" s="20"/>
-      <c r="F38" s="43" t="s">
+      <c r="F38" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-    </row>
-    <row r="39" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="44"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+    </row>
+    <row r="39" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="54"/>
       <c r="B39" s="41"/>
       <c r="C39" s="19">
         <v>36</v>
       </c>
       <c r="D39" s="20"/>
       <c r="E39" s="20"/>
-      <c r="F39" s="43" t="s">
+      <c r="F39" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-    </row>
-    <row r="40" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="44"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+    </row>
+    <row r="40" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="54"/>
       <c r="B40" s="41"/>
       <c r="C40" s="19">
         <v>37</v>
       </c>
       <c r="D40" s="20"/>
       <c r="E40" s="20"/>
-      <c r="F40" s="43" t="s">
+      <c r="F40" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-    </row>
-    <row r="41" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="44"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51"/>
+    </row>
+    <row r="41" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="54"/>
       <c r="B41" s="11" t="s">
         <v>28</v>
       </c>
@@ -2692,23 +2691,23 @@
       </c>
       <c r="I41" s="33"/>
     </row>
-    <row r="42" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="44"/>
+    <row r="42" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="54"/>
       <c r="B42" s="41"/>
       <c r="C42" s="19">
         <v>39</v>
       </c>
       <c r="D42" s="20"/>
       <c r="E42" s="20"/>
-      <c r="F42" s="43" t="s">
+      <c r="F42" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="G42" s="43"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="43"/>
-    </row>
-    <row r="43" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="44"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="51"/>
+    </row>
+    <row r="43" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="54"/>
       <c r="B43" s="11" t="s">
         <v>104</v>
       </c>
@@ -2732,17 +2731,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
     <mergeCell ref="F25:I25"/>
     <mergeCell ref="F19:I19"/>
     <mergeCell ref="F37:I37"/>
     <mergeCell ref="F40:I40"/>
     <mergeCell ref="A36:A43"/>
     <mergeCell ref="F42:I42"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:H2"/>
     <mergeCell ref="F15:I15"/>
@@ -2771,32 +2770,32 @@
       <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="8" width="8.7109375" customWidth="1"/>
+    <col min="1" max="8" width="8.7265625" customWidth="1"/>
     <col min="9" max="10" width="2" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.140625" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="e" vm="1">
+    <row r="1" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="47" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="47" t="str">
+      <c r="B1" s="47"/>
+      <c r="C1" s="49" t="str">
         <f>Channels!C1</f>
         <v>Full Band Setup</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
       <c r="K1" s="81" t="str">
         <f>Channels!I1</f>
         <v>🌐 theperfectstrangers.band</v>
@@ -2807,25 +2806,25 @@
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
     </row>
-    <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
+    <row r="2" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
       <c r="K2" s="84" t="str">
         <f ca="1">Channels!I2</f>
-        <v>Date Updated: 2026.02.08</v>
+        <v>Date Updated: 2026.02.11</v>
       </c>
       <c r="L2" s="84"/>
       <c r="M2" s="84"/>
     </row>
-    <row r="3" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="63" t="s">
         <v>105</v>
       </c>
@@ -2843,7 +2842,7 @@
       <c r="L3" s="68"/>
       <c r="M3" s="68"/>
     </row>
-    <row r="4" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="63" t="s">
         <v>0</v>
       </c>
@@ -2863,7 +2862,7 @@
       </c>
       <c r="M4" s="70"/>
     </row>
-    <row r="5" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -2893,7 +2892,7 @@
       <c r="L5" s="71"/>
       <c r="M5" s="72"/>
     </row>
-    <row r="6" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="83" t="s">
         <v>12</v>
       </c>
@@ -2927,7 +2926,7 @@
       </c>
       <c r="M6" s="74"/>
     </row>
-    <row r="7" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="83"/>
       <c r="B7" s="83"/>
       <c r="C7" s="83"/>
@@ -2941,7 +2940,7 @@
       <c r="L7" s="75"/>
       <c r="M7" s="76"/>
     </row>
-    <row r="8" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -2959,7 +2958,7 @@
       </c>
       <c r="M8" s="70"/>
     </row>
-    <row r="9" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -2989,7 +2988,7 @@
       <c r="L9" s="71"/>
       <c r="M9" s="72"/>
     </row>
-    <row r="10" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="85" t="s">
         <v>42</v>
       </c>
@@ -3011,7 +3010,7 @@
       </c>
       <c r="M10" s="74"/>
     </row>
-    <row r="11" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="86"/>
       <c r="B11" s="83"/>
       <c r="C11" s="57"/>
@@ -3025,7 +3024,7 @@
       <c r="L11" s="75"/>
       <c r="M11" s="76"/>
     </row>
-    <row r="12" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I12" s="2"/>
       <c r="K12" s="79">
         <v>5</v>
@@ -3035,7 +3034,7 @@
       </c>
       <c r="M12" s="70"/>
     </row>
-    <row r="13" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>17</v>
       </c>
@@ -3065,7 +3064,7 @@
       <c r="L13" s="71"/>
       <c r="M13" s="72"/>
     </row>
-    <row r="14" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="58" t="s">
         <v>115</v>
       </c>
@@ -3091,7 +3090,7 @@
       <c r="L14" s="73"/>
       <c r="M14" s="74"/>
     </row>
-    <row r="15" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="58"/>
       <c r="B15" s="58"/>
       <c r="C15" s="57"/>
@@ -3105,10 +3104,10 @@
       <c r="L15" s="75"/>
       <c r="M15" s="76"/>
     </row>
-    <row r="16" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:13" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="63" t="s">
         <v>4</v>
       </c>
@@ -3121,7 +3120,7 @@
       <c r="H17" s="63"/>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:13" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="14.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -3153,7 +3152,7 @@
       <c r="L18" s="67"/>
       <c r="M18" s="67"/>
     </row>
-    <row r="19" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="61" t="s">
         <v>108</v>
       </c>
@@ -3189,7 +3188,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="61"/>
       <c r="B20" s="61"/>
       <c r="C20" s="62"/>
@@ -3209,7 +3208,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -3229,7 +3228,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="14.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="I22" s="2"/>
       <c r="K22" t="s">
         <v>93</v>
@@ -3241,7 +3240,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="63" t="s">
         <v>106</v>
       </c>
@@ -3263,7 +3262,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="63" t="s">
         <v>0</v>
       </c>
@@ -3285,7 +3284,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -3321,7 +3320,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="65" t="s">
         <v>98</v>
       </c>
@@ -3348,7 +3347,7 @@
       </c>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="66"/>
       <c r="B27" s="61"/>
       <c r="C27" s="62"/>
@@ -3359,7 +3358,7 @@
       <c r="H27" s="87"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -3370,7 +3369,7 @@
       <c r="H28" s="10"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>9</v>
       </c>
@@ -3397,12 +3396,12 @@
       </c>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="87" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="B30" s="87" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="C30" s="88" t="s">
         <v>138</v>
@@ -3417,14 +3416,14 @@
         <v>59</v>
       </c>
       <c r="G30" s="90" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="H30" s="92" t="s">
         <v>147</v>
       </c>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="87"/>
       <c r="B31" s="87"/>
       <c r="C31" s="89"/>
@@ -3435,10 +3434,10 @@
       <c r="H31" s="92"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="63" t="s">
         <v>4</v>
       </c>
@@ -3451,7 +3450,7 @@
       <c r="H33" s="63"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>1</v>
       </c>
@@ -3478,7 +3477,7 @@
       </c>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="83" t="s">
         <v>112</v>
       </c>
@@ -3505,7 +3504,7 @@
       </c>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="83"/>
       <c r="B36" s="83"/>
       <c r="C36" s="87"/>

--- a/InputList/FullBand/InputList.xlsx
+++ b/InputList/FullBand/InputList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\TechnicalDocumentation\InputList\FullBand\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\TechnicalDocumentation\InputList\FullBand\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EC463F-B33F-49FE-9943-A03ECF7582EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94820EBF-1D8E-44A4-8440-859FDFC1991B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-7425" windowWidth="16440" windowHeight="29040" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
   </bookViews>
   <sheets>
     <sheet name="Channels" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="188">
   <si>
     <t>Input</t>
   </si>
@@ -330,9 +330,6 @@
     <t>Stage left house crowd mic</t>
   </si>
   <si>
-    <t>EQ up low and mid. Heavy reverb.</t>
-  </si>
-  <si>
     <t>Device</t>
   </si>
   <si>
@@ -593,9 +590,6 @@
     <t>USR 1</t>
   </si>
   <si>
-    <t>DSl 1</t>
-  </si>
-  <si>
     <t>USR 3</t>
   </si>
   <si>
@@ -660,6 +654,18 @@
   </si>
   <si>
     <t>A16</t>
+  </si>
+  <si>
+    <t>DSL 1</t>
+  </si>
+  <si>
+    <t>DSR 4/DSL 7</t>
+  </si>
+  <si>
+    <t>Light reverb. Light Delay. May not need.</t>
+  </si>
+  <si>
+    <t>Increase EQ on lows &amp; mids, heavy reverb</t>
   </si>
 </sst>
 </file>
@@ -1196,16 +1202,16 @@
     <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1222,133 +1228,133 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1758,30 +1764,30 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.81640625" customWidth="1"/>
-    <col min="3" max="3" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.81640625" customWidth="1"/>
-    <col min="11" max="13" width="7.26953125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" customWidth="1"/>
+    <col min="11" max="13" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D1" s="49"/>
       <c r="E1" s="49"/>
@@ -1789,10 +1795,10 @@
       <c r="G1" s="49"/>
       <c r="H1" s="49"/>
       <c r="I1" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="48"/>
       <c r="B2" s="48"/>
       <c r="C2" s="50"/>
@@ -1803,10 +1809,10 @@
       <c r="H2" s="50"/>
       <c r="I2" s="9" t="str">
         <f ca="1">"Date Updated: "&amp;TEXT(TODAY(),"yyyy.mm.dd")</f>
-        <v>Date Updated: 2026.02.11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>Date Updated: 2026.02.14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>37</v>
       </c>
@@ -1814,7 +1820,7 @@
         <v>56</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>0</v>
@@ -1823,7 +1829,7 @@
         <v>60</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>14</v>
@@ -1835,18 +1841,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="52" t="s">
+    <row r="4" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="52" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="15">
         <v>1</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>65</v>
@@ -1864,14 +1870,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="52"/>
-      <c r="B5" s="53"/>
+    <row r="5" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="51"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="17">
         <v>2</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>66</v>
@@ -1889,14 +1895,14 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="52"/>
-      <c r="B6" s="53"/>
+    <row r="6" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="15">
         <v>3</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>67</v>
@@ -1912,14 +1918,14 @@
       </c>
       <c r="I6" s="16"/>
     </row>
-    <row r="7" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="52"/>
-      <c r="B7" s="53"/>
+    <row r="7" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="51"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="17">
         <v>4</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>68</v>
@@ -1937,14 +1943,14 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="52"/>
-      <c r="B8" s="53"/>
+    <row r="8" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="51"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="15">
         <v>5</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>69</v>
@@ -1962,14 +1968,14 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="52"/>
-      <c r="B9" s="53"/>
+    <row r="9" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="51"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="17">
         <v>6</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>70</v>
@@ -1987,14 +1993,14 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="52"/>
-      <c r="B10" s="53"/>
+    <row r="10" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="51"/>
+      <c r="B10" s="52"/>
       <c r="C10" s="15">
         <v>7</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>71</v>
@@ -2012,14 +2018,14 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="52"/>
-      <c r="B11" s="53"/>
+    <row r="11" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="51"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="17">
         <v>8</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>72</v>
@@ -2037,14 +2043,14 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="52"/>
-      <c r="B12" s="53"/>
+    <row r="12" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="51"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="15">
         <v>9</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>73</v>
@@ -2062,14 +2068,14 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="52"/>
-      <c r="B13" s="53"/>
+    <row r="13" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="51"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="17">
         <v>10</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>74</v>
@@ -2087,7 +2093,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="19">
@@ -2095,14 +2101,14 @@
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
-      <c r="F14" s="51" t="s">
+      <c r="F14" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-    </row>
-    <row r="15" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+    </row>
+    <row r="15" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="19">
@@ -2110,14 +2116,14 @@
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
-      <c r="F15" s="51" t="s">
+      <c r="F15" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-    </row>
-    <row r="16" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+    </row>
+    <row r="16" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="19">
@@ -2125,29 +2131,29 @@
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
-      <c r="F16" s="51" t="s">
+      <c r="F16" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-    </row>
-    <row r="17" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17" s="44" t="s">
-        <v>133</v>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+    </row>
+    <row r="17" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="54" t="s">
+        <v>132</v>
       </c>
       <c r="C17" s="21">
         <v>14</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E17" s="22"/>
       <c r="F17" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G17" s="22" t="s">
         <v>23</v>
@@ -2156,23 +2162,23 @@
         <v>62</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="43"/>
-      <c r="B18" s="44"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="53"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="23">
         <v>15</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G18" s="24" t="s">
         <v>25</v>
@@ -2182,7 +2188,7 @@
       </c>
       <c r="I18" s="24"/>
     </row>
-    <row r="19" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="19">
@@ -2190,25 +2196,25 @@
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
-      <c r="F19" s="51" t="s">
+      <c r="F19" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-    </row>
-    <row r="20" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+    </row>
+    <row r="20" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="42" t="s">
         <v>57</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C20" s="25">
         <v>17</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E20" s="25" t="s">
         <v>75</v>
@@ -2223,24 +2229,24 @@
         <v>62</v>
       </c>
       <c r="I20" s="25" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="45" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="45" t="s">
-        <v>134</v>
+      <c r="B21" s="55" t="s">
+        <v>133</v>
       </c>
       <c r="C21" s="26">
         <v>18</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="F21" s="27" t="s">
         <v>1</v>
@@ -2255,20 +2261,20 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
+    <row r="22" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="55"/>
+      <c r="B22" s="55"/>
       <c r="C22" s="28">
         <v>19</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E22" s="29" t="s">
         <v>26</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G22" s="29" t="s">
         <v>30</v>
@@ -2278,20 +2284,20 @@
       </c>
       <c r="I22" s="29"/>
     </row>
-    <row r="23" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
+    <row r="23" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="55"/>
+      <c r="B23" s="55"/>
       <c r="C23" s="26">
         <v>20</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E23" s="27" t="s">
         <v>26</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G23" s="27" t="s">
         <v>30</v>
@@ -2301,20 +2307,20 @@
       </c>
       <c r="I23" s="27"/>
     </row>
-    <row r="24" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
+    <row r="24" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="55"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="28">
         <v>21</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E24" s="29" t="s">
         <v>77</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G24" s="29" t="s">
         <v>64</v>
@@ -2324,7 +2330,7 @@
       </c>
       <c r="I24" s="29"/>
     </row>
-    <row r="25" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="19">
@@ -2332,37 +2338,37 @@
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
-      <c r="F25" s="51" t="s">
+      <c r="F25" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="G25" s="51" t="s">
+      <c r="G25" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="H25" s="51" t="s">
+      <c r="H25" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="I25" s="51" t="s">
+      <c r="I25" s="43" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="46" t="s">
+    <row r="26" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" s="56" t="s">
         <v>141</v>
-      </c>
-      <c r="B26" s="46" t="s">
-        <v>142</v>
       </c>
       <c r="C26" s="37">
         <v>23</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E26" s="38" t="s">
         <v>76</v>
       </c>
       <c r="F26" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G26" s="38" t="s">
         <v>48</v>
@@ -2374,20 +2380,20 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="46"/>
-      <c r="B27" s="46"/>
+    <row r="27" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="56"/>
+      <c r="B27" s="56"/>
       <c r="C27" s="39">
         <v>24</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E27" s="40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F27" s="40" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G27" s="40" t="s">
         <v>48</v>
@@ -2397,20 +2403,20 @@
       </c>
       <c r="I27" s="40"/>
     </row>
-    <row r="28" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="46"/>
-      <c r="B28" s="46"/>
+    <row r="28" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="56"/>
+      <c r="B28" s="56"/>
       <c r="C28" s="37">
         <v>25</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E28" s="38" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F28" s="38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G28" s="38" t="s">
         <v>48</v>
@@ -2420,20 +2426,20 @@
       </c>
       <c r="I28" s="38"/>
     </row>
-    <row r="29" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="46"/>
-      <c r="B29" s="46"/>
+    <row r="29" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="56"/>
+      <c r="B29" s="56"/>
       <c r="C29" s="39">
         <v>26</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E29" s="40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F29" s="40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G29" s="40" t="s">
         <v>43</v>
@@ -2443,18 +2449,18 @@
       </c>
       <c r="I29" s="40"/>
     </row>
-    <row r="30" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="55" t="s">
+    <row r="30" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="56" t="s">
-        <v>135</v>
+      <c r="B30" s="46" t="s">
+        <v>134</v>
       </c>
       <c r="C30" s="30">
         <v>27</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E30" s="30" t="s">
         <v>78</v>
@@ -2472,14 +2478,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="55"/>
-      <c r="B31" s="56"/>
+    <row r="31" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="45"/>
+      <c r="B31" s="46"/>
       <c r="C31" s="31">
         <v>28</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E31" s="31" t="s">
         <v>79</v>
@@ -2495,14 +2501,14 @@
       </c>
       <c r="I31" s="31"/>
     </row>
-    <row r="32" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="55"/>
-      <c r="B32" s="56"/>
+    <row r="32" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="45"/>
+      <c r="B32" s="46"/>
       <c r="C32" s="30">
         <v>29</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E32" s="30" t="s">
         <v>80</v>
@@ -2518,17 +2524,17 @@
       </c>
       <c r="I32" s="30"/>
     </row>
-    <row r="33" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="55"/>
-      <c r="B33" s="56"/>
+    <row r="33" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="45"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="31">
         <v>30</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F33" s="31" t="s">
         <v>32</v>
@@ -2541,7 +2547,7 @@
       </c>
       <c r="I33" s="31"/>
     </row>
-    <row r="34" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="19">
@@ -2549,27 +2555,29 @@
       </c>
       <c r="D34" s="20"/>
       <c r="E34" s="20"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-    </row>
-    <row r="35" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+    </row>
+    <row r="35" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" s="34" t="s">
         <v>127</v>
-      </c>
-      <c r="B35" s="34" t="s">
-        <v>128</v>
       </c>
       <c r="C35" s="35">
         <v>32</v>
       </c>
       <c r="D35" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="E35" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="E35" s="36"/>
       <c r="F35" s="36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G35" s="36" t="s">
         <v>48</v>
@@ -2578,11 +2586,11 @@
         <v>62</v>
       </c>
       <c r="I35" s="36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="54" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="44" t="s">
         <v>47</v>
       </c>
       <c r="B36" s="11" t="s">
@@ -2608,68 +2616,68 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="54"/>
+    <row r="37" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="44"/>
       <c r="B37" s="41"/>
       <c r="C37" s="19">
         <v>34</v>
       </c>
       <c r="D37" s="20"/>
       <c r="E37" s="20"/>
-      <c r="F37" s="51" t="s">
+      <c r="F37" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="51"/>
-    </row>
-    <row r="38" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="54"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+    </row>
+    <row r="38" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="44"/>
       <c r="B38" s="41"/>
       <c r="C38" s="19">
         <v>35</v>
       </c>
       <c r="D38" s="20"/>
       <c r="E38" s="20"/>
-      <c r="F38" s="51" t="s">
+      <c r="F38" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
-    </row>
-    <row r="39" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="54"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+    </row>
+    <row r="39" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="44"/>
       <c r="B39" s="41"/>
       <c r="C39" s="19">
         <v>36</v>
       </c>
       <c r="D39" s="20"/>
       <c r="E39" s="20"/>
-      <c r="F39" s="51" t="s">
+      <c r="F39" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="51"/>
-    </row>
-    <row r="40" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="54"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+    </row>
+    <row r="40" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="44"/>
       <c r="B40" s="41"/>
       <c r="C40" s="19">
         <v>37</v>
       </c>
       <c r="D40" s="20"/>
       <c r="E40" s="20"/>
-      <c r="F40" s="51" t="s">
+      <c r="F40" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="51"/>
-    </row>
-    <row r="41" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="54"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+    </row>
+    <row r="41" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="44"/>
       <c r="B41" s="11" t="s">
         <v>28</v>
       </c>
@@ -2691,25 +2699,25 @@
       </c>
       <c r="I41" s="33"/>
     </row>
-    <row r="42" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="54"/>
+    <row r="42" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="44"/>
       <c r="B42" s="41"/>
       <c r="C42" s="19">
         <v>39</v>
       </c>
       <c r="D42" s="20"/>
       <c r="E42" s="20"/>
-      <c r="F42" s="51" t="s">
+      <c r="F42" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="51"/>
-    </row>
-    <row r="43" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="54"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43"/>
+    </row>
+    <row r="43" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="44"/>
       <c r="B43" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C43" s="32">
         <v>40</v>
@@ -2731,6 +2739,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:H2"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="B4:B13"/>
     <mergeCell ref="F25:I25"/>
     <mergeCell ref="F19:I19"/>
     <mergeCell ref="F37:I37"/>
@@ -2742,19 +2763,6 @@
     <mergeCell ref="F34:I34"/>
     <mergeCell ref="A30:A33"/>
     <mergeCell ref="B30:B33"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:H2"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="A4:A13"/>
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2770,17 +2778,17 @@
       <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="8.7265625" customWidth="1"/>
+    <col min="1" max="8" width="8.7109375" customWidth="1"/>
     <col min="9" max="10" width="2" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.1796875" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
@@ -2796,17 +2804,17 @@
       <c r="H1" s="49"/>
       <c r="I1" s="49"/>
       <c r="J1" s="49"/>
-      <c r="K1" s="81" t="str">
+      <c r="K1" s="74" t="str">
         <f>Channels!I1</f>
         <v>🌐 theperfectstrangers.band</v>
       </c>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
     </row>
-    <row r="2" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="48"/>
       <c r="B2" s="48"/>
       <c r="C2" s="49"/>
@@ -2817,52 +2825,52 @@
       <c r="H2" s="49"/>
       <c r="I2" s="49"/>
       <c r="J2" s="49"/>
-      <c r="K2" s="84" t="str">
+      <c r="K2" s="76" t="str">
         <f ca="1">Channels!I2</f>
-        <v>Date Updated: 2026.02.11</v>
-      </c>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-    </row>
-    <row r="3" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="63" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
+        <v>Date Updated: 2026.02.14</v>
+      </c>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+    </row>
+    <row r="3" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
       <c r="I3" s="2"/>
-      <c r="K3" s="68" t="s">
+      <c r="K3" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-    </row>
-    <row r="4" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="63" t="s">
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+    </row>
+    <row r="4" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
       <c r="I4" s="2"/>
-      <c r="K4" s="79">
+      <c r="K4" s="90">
         <v>1</v>
       </c>
-      <c r="L4" s="69" t="s">
+      <c r="L4" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="70"/>
-    </row>
-    <row r="5" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M4" s="81"/>
+    </row>
+    <row r="5" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -2888,59 +2896,59 @@
         <v>8</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="72"/>
-    </row>
-    <row r="6" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="83" t="s">
+      <c r="K5" s="91"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="83"/>
+    </row>
+    <row r="6" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="83" t="s">
+      <c r="D6" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="83" t="s">
+      <c r="E6" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="83" t="s">
+      <c r="F6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="83" t="s">
+      <c r="G6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="85" t="s">
+      <c r="H6" s="71" t="s">
         <v>10</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="K6" s="77">
+      <c r="K6" s="88">
         <v>2</v>
       </c>
-      <c r="L6" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="M6" s="74"/>
-    </row>
-    <row r="7" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="83"/>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="86"/>
+      <c r="L6" s="84" t="s">
+        <v>122</v>
+      </c>
+      <c r="M6" s="85"/>
+    </row>
+    <row r="7" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="62"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="72"/>
       <c r="I7" s="2"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="76"/>
-    </row>
-    <row r="8" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K7" s="89"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="87"/>
+    </row>
+    <row r="8" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -2950,15 +2958,15 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="2"/>
-      <c r="K8" s="79">
+      <c r="K8" s="90">
         <v>3</v>
       </c>
-      <c r="L8" s="69" t="s">
+      <c r="L8" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="70"/>
-    </row>
-    <row r="9" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M8" s="81"/>
+    </row>
+    <row r="9" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -2984,57 +2992,57 @@
         <v>16</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="72"/>
-    </row>
-    <row r="10" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="85" t="s">
+      <c r="K9" s="91"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="83"/>
+    </row>
+    <row r="10" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
       <c r="I10" s="2"/>
-      <c r="K10" s="77">
+      <c r="K10" s="88">
         <v>4</v>
       </c>
-      <c r="L10" s="73" t="s">
+      <c r="L10" s="84" t="s">
+        <v>123</v>
+      </c>
+      <c r="M10" s="85"/>
+    </row>
+    <row r="11" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="72"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="2"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="87"/>
+    </row>
+    <row r="12" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="2"/>
+      <c r="K12" s="90">
+        <v>5</v>
+      </c>
+      <c r="L12" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="M10" s="74"/>
-    </row>
-    <row r="11" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="86"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="2"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="76"/>
-    </row>
-    <row r="12" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="I12" s="2"/>
-      <c r="K12" s="79">
-        <v>5</v>
-      </c>
-      <c r="L12" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="M12" s="70"/>
-    </row>
-    <row r="13" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M12" s="81"/>
+    </row>
+    <row r="13" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>17</v>
       </c>
@@ -3060,67 +3068,67 @@
         <v>24</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="72"/>
-    </row>
-    <row r="14" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="58" t="s">
+      <c r="K13" s="91"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="83"/>
+    </row>
+    <row r="14" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="B14" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="58" t="s">
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="58" t="s">
+      <c r="F14" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="57"/>
-      <c r="H14" s="58" t="s">
-        <v>104</v>
+      <c r="G14" s="73"/>
+      <c r="H14" s="77" t="s">
+        <v>103</v>
       </c>
       <c r="I14" s="2"/>
-      <c r="K14" s="77">
+      <c r="K14" s="88">
         <v>6</v>
       </c>
-      <c r="L14" s="73"/>
-      <c r="M14" s="74"/>
-    </row>
-    <row r="15" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="58"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="58"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="85"/>
+    </row>
+    <row r="15" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="77"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="77"/>
       <c r="I15" s="2"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="76"/>
-    </row>
-    <row r="16" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K15" s="89"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="87"/>
+    </row>
+    <row r="16" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:13" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="63" t="s">
+    <row r="17" spans="1:13" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:13" ht="14.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -3146,69 +3154,69 @@
         <v>8</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="K18" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-    </row>
-    <row r="19" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="61" t="s">
+      <c r="K18" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
+    </row>
+    <row r="19" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="B19" s="61" t="s">
+      <c r="C19" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="C19" s="62" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19" s="62" t="s">
-        <v>119</v>
-      </c>
-      <c r="E19" s="64" t="s">
+      <c r="F19" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="F19" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="G19" s="82" t="s">
+      <c r="G19" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" s="75" t="s">
         <v>117</v>
-      </c>
-      <c r="H19" s="82" t="s">
-        <v>118</v>
       </c>
       <c r="I19" s="2"/>
       <c r="K19" t="s">
+        <v>84</v>
+      </c>
+      <c r="L19" t="s">
         <v>85</v>
       </c>
-      <c r="L19" t="s">
-        <v>86</v>
-      </c>
       <c r="M19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="61"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="57"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
       <c r="I20" s="2"/>
       <c r="K20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L20" t="s">
+        <v>86</v>
+      </c>
+      <c r="M20" t="s">
         <v>87</v>
       </c>
-      <c r="M20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="21" spans="1:13" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -3219,72 +3227,72 @@
       <c r="H21" s="5"/>
       <c r="I21" s="2"/>
       <c r="K21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L21" t="s">
+        <v>86</v>
+      </c>
+      <c r="M21" t="s">
         <v>87</v>
       </c>
-      <c r="M21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="14.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:13" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="I22" s="2"/>
       <c r="K22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L22" t="s">
+        <v>86</v>
+      </c>
+      <c r="M22" t="s">
         <v>87</v>
       </c>
-      <c r="M22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="63" t="s">
-        <v>106</v>
-      </c>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
+    </row>
+    <row r="23" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="60" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
       <c r="I23" s="2"/>
       <c r="K23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L23" t="s">
+        <v>88</v>
+      </c>
+      <c r="M23" t="s">
         <v>89</v>
       </c>
-      <c r="M23" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="63" t="s">
+    </row>
+    <row r="24" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
       <c r="I24" s="2"/>
       <c r="K24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L24" t="s">
+        <v>86</v>
+      </c>
+      <c r="M24" t="s">
         <v>87</v>
       </c>
-      <c r="M24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -3311,54 +3319,54 @@
       </c>
       <c r="I25" s="2"/>
       <c r="K25" t="s">
+        <v>144</v>
+      </c>
+      <c r="L25" t="s">
         <v>145</v>
       </c>
-      <c r="L25" t="s">
-        <v>146</v>
-      </c>
       <c r="M25" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="65" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="92" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="C26" s="62" t="s">
+      <c r="C26" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="59" t="s">
+      <c r="D26" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="E26" s="59" t="s">
-        <v>132</v>
-      </c>
-      <c r="F26" s="59" t="s">
+      <c r="E26" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" s="67" t="s">
+        <v>135</v>
+      </c>
+      <c r="G26" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="H26" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="G26" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="H26" s="87" t="s">
-        <v>137</v>
-      </c>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="66"/>
-      <c r="B27" s="61"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="87"/>
+    <row r="27" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="93"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="63"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -3369,7 +3377,7 @@
       <c r="H28" s="10"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>9</v>
       </c>
@@ -3396,61 +3404,61 @@
       </c>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="87" t="s">
+    <row r="30" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="63" t="s">
+        <v>165</v>
+      </c>
+      <c r="B30" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" s="64" t="s">
         <v>167</v>
       </c>
-      <c r="B30" s="87" t="s">
-        <v>168</v>
-      </c>
-      <c r="C30" s="88" t="s">
-        <v>138</v>
-      </c>
-      <c r="D30" s="90" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="90" t="s">
-        <v>3</v>
-      </c>
-      <c r="F30" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="G30" s="90" t="s">
-        <v>169</v>
-      </c>
-      <c r="H30" s="92" t="s">
-        <v>147</v>
+      <c r="H30" s="66" t="s">
+        <v>146</v>
       </c>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="87"/>
-      <c r="B31" s="87"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="91"/>
-      <c r="F31" s="91"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="92"/>
+    <row r="31" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="63"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="66"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="63" t="s">
+    <row r="33" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="63"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1</v>
       </c>
@@ -3477,80 +3485,76 @@
       </c>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="83" t="s">
+    <row r="35" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="B35" s="83" t="s">
+      <c r="C35" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="E35" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="C35" s="87" t="s">
-        <v>139</v>
-      </c>
-      <c r="D35" s="87" t="s">
-        <v>140</v>
-      </c>
-      <c r="E35" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="F35" s="93" t="s">
+      <c r="F35" s="61" t="s">
+        <v>120</v>
+      </c>
+      <c r="G35" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="H35" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="G35" s="93" t="s">
-        <v>100</v>
-      </c>
-      <c r="H35" s="93" t="s">
-        <v>122</v>
-      </c>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="83"/>
-      <c r="B36" s="83"/>
-      <c r="C36" s="87"/>
-      <c r="D36" s="87"/>
-      <c r="E36" s="93"/>
-      <c r="F36" s="93"/>
-      <c r="G36" s="93"/>
-      <c r="H36" s="93"/>
+    <row r="36" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="62"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
       <c r="I36" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:J2"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="L4:M5"/>
+    <mergeCell ref="L6:M7"/>
+    <mergeCell ref="L8:M9"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:M15"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
@@ -3567,36 +3571,40 @@
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="A14:A15"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="L4:M5"/>
-    <mergeCell ref="L6:M7"/>
-    <mergeCell ref="L8:M9"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L10:M11"/>
-    <mergeCell ref="L12:M13"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:M15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:J2"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InputList/FullBand/InputList.xlsx
+++ b/InputList/FullBand/InputList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\TechnicalDocumentation\InputList\FullBand\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\TechnicalDocumentation\InputList\FullBand\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94820EBF-1D8E-44A4-8440-859FDFC1991B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590DD6EA-3912-4028-820A-D181B8CE1210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="25760" windowHeight="13840" xr2:uid="{976BA9A3-41FE-45E5-BC0B-B40312D9AF21}"/>
   </bookViews>
   <sheets>
     <sheet name="Channels" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="188">
   <si>
     <t>Input</t>
   </si>
@@ -1175,15 +1175,6 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1202,16 +1193,16 @@
     <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1228,22 +1219,34 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1252,110 +1255,107 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1761,58 +1761,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A11D25-D77D-4358-9E34-E04B11CA4C7B}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34:I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.81640625" customWidth="1"/>
+    <col min="3" max="3" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" customWidth="1"/>
-    <col min="11" max="13" width="7.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.81640625" customWidth="1"/>
+    <col min="11" max="13" width="7.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="e" vm="1">
+    <row r="1" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="44" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="49" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
       <c r="I1" s="8" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
+    <row r="2" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
       <c r="I2" s="9" t="str">
         <f ca="1">"Date Updated: "&amp;TEXT(TODAY(),"yyyy.mm.dd")</f>
-        <v>Date Updated: 2026.02.14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Date Updated: 2026.02.15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>37</v>
       </c>
@@ -1841,11 +1844,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+    <row r="4" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="50" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="15">
@@ -1870,9 +1873,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
-      <c r="B5" s="52"/>
+    <row r="5" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="17">
         <v>2</v>
       </c>
@@ -1895,9 +1898,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
-      <c r="B6" s="52"/>
+    <row r="6" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="49"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="15">
         <v>3</v>
       </c>
@@ -1918,9 +1921,9 @@
       </c>
       <c r="I6" s="16"/>
     </row>
-    <row r="7" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="52"/>
+    <row r="7" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="49"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="17">
         <v>4</v>
       </c>
@@ -1943,9 +1946,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
-      <c r="B8" s="52"/>
+    <row r="8" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="49"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="15">
         <v>5</v>
       </c>
@@ -1968,9 +1971,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
-      <c r="B9" s="52"/>
+    <row r="9" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="49"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="17">
         <v>6</v>
       </c>
@@ -1993,9 +1996,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
-      <c r="B10" s="52"/>
+    <row r="10" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="49"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="15">
         <v>7</v>
       </c>
@@ -2018,9 +2021,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
-      <c r="B11" s="52"/>
+    <row r="11" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="49"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="17">
         <v>8</v>
       </c>
@@ -2043,9 +2046,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="52"/>
+    <row r="12" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="49"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="15">
         <v>9</v>
       </c>
@@ -2068,9 +2071,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
-      <c r="B13" s="52"/>
+    <row r="13" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="49"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="17">
         <v>10</v>
       </c>
@@ -2093,7 +2096,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="19">
@@ -2101,14 +2104,14 @@
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
-      <c r="F14" s="43" t="s">
+      <c r="F14" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-    </row>
-    <row r="15" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+    </row>
+    <row r="15" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="19">
@@ -2116,14 +2119,14 @@
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
-      <c r="F15" s="43" t="s">
+      <c r="F15" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-    </row>
-    <row r="16" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+    </row>
+    <row r="16" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="19">
@@ -2131,18 +2134,18 @@
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-    </row>
-    <row r="17" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="53" t="s">
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+    </row>
+    <row r="17" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="41" t="s">
         <v>132</v>
       </c>
       <c r="C17" s="21">
@@ -2165,9 +2168,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
-      <c r="B18" s="54"/>
+    <row r="18" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="40"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="23">
         <v>15</v>
       </c>
@@ -2188,7 +2191,7 @@
       </c>
       <c r="I18" s="24"/>
     </row>
-    <row r="19" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="19">
@@ -2196,18 +2199,18 @@
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
-      <c r="F19" s="43" t="s">
+      <c r="F19" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-    </row>
-    <row r="20" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+    </row>
+    <row r="20" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="39" t="s">
         <v>148</v>
       </c>
       <c r="C20" s="25">
@@ -2232,11 +2235,11 @@
         <v>187</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="55" t="s">
+    <row r="21" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="42" t="s">
         <v>133</v>
       </c>
       <c r="C21" s="26">
@@ -2261,9 +2264,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
-      <c r="B22" s="55"/>
+    <row r="22" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="42"/>
+      <c r="B22" s="42"/>
       <c r="C22" s="28">
         <v>19</v>
       </c>
@@ -2284,9 +2287,9 @@
       </c>
       <c r="I22" s="29"/>
     </row>
-    <row r="23" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
-      <c r="B23" s="55"/>
+    <row r="23" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
       <c r="C23" s="26">
         <v>20</v>
       </c>
@@ -2307,9 +2310,9 @@
       </c>
       <c r="I23" s="27"/>
     </row>
-    <row r="24" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
-      <c r="B24" s="55"/>
+    <row r="24" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
       <c r="C24" s="28">
         <v>21</v>
       </c>
@@ -2330,7 +2333,7 @@
       </c>
       <c r="I24" s="29"/>
     </row>
-    <row r="25" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="19">
@@ -2338,122 +2341,122 @@
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
-      <c r="F25" s="43" t="s">
+      <c r="F25" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="G25" s="43" t="s">
+      <c r="G25" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="H25" s="43" t="s">
+      <c r="H25" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="I25" s="43" t="s">
+      <c r="I25" s="48" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="56" t="s">
+    <row r="26" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="B26" s="56" t="s">
+      <c r="B26" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="C26" s="37">
+      <c r="C26" s="34">
         <v>23</v>
       </c>
-      <c r="D26" s="38" t="s">
+      <c r="D26" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="E26" s="38" t="s">
+      <c r="E26" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="F26" s="38" t="s">
+      <c r="F26" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="G26" s="38" t="s">
+      <c r="G26" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="H26" s="38" t="s">
+      <c r="H26" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="38" t="s">
+      <c r="I26" s="35" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="56"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="39">
+    <row r="27" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="43"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="36">
         <v>24</v>
       </c>
-      <c r="D27" s="40" t="s">
+      <c r="D27" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="E27" s="40" t="s">
+      <c r="E27" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="F27" s="40" t="s">
+      <c r="F27" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="G27" s="40" t="s">
+      <c r="G27" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="H27" s="40" t="s">
+      <c r="H27" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="I27" s="40"/>
-    </row>
-    <row r="28" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="37">
+      <c r="I27" s="37"/>
+    </row>
+    <row r="28" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="43"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="34">
         <v>25</v>
       </c>
-      <c r="D28" s="38" t="s">
+      <c r="D28" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="E28" s="38" t="s">
+      <c r="E28" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="F28" s="38" t="s">
+      <c r="F28" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="G28" s="38" t="s">
+      <c r="G28" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="H28" s="38" t="s">
+      <c r="H28" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="I28" s="38"/>
-    </row>
-    <row r="29" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="56"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="39">
+      <c r="I28" s="35"/>
+    </row>
+    <row r="29" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="43"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="36">
         <v>26</v>
       </c>
-      <c r="D29" s="40" t="s">
+      <c r="D29" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="E29" s="40" t="s">
+      <c r="E29" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="F29" s="40" t="s">
+      <c r="F29" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="G29" s="40" t="s">
+      <c r="G29" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="H29" s="40" t="s">
+      <c r="H29" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="I29" s="40"/>
-    </row>
-    <row r="30" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="45" t="s">
+      <c r="I29" s="37"/>
+    </row>
+    <row r="30" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="53" t="s">
         <v>134</v>
       </c>
       <c r="C30" s="30">
@@ -2478,9 +2481,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
-      <c r="B31" s="46"/>
+    <row r="31" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="52"/>
+      <c r="B31" s="53"/>
       <c r="C31" s="31">
         <v>28</v>
       </c>
@@ -2501,9 +2504,9 @@
       </c>
       <c r="I31" s="31"/>
     </row>
-    <row r="32" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
-      <c r="B32" s="46"/>
+    <row r="32" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="52"/>
+      <c r="B32" s="53"/>
       <c r="C32" s="30">
         <v>29</v>
       </c>
@@ -2524,9 +2527,9 @@
       </c>
       <c r="I32" s="30"/>
     </row>
-    <row r="33" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
-      <c r="B33" s="46"/>
+    <row r="33" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="52"/>
+      <c r="B33" s="53"/>
       <c r="C33" s="31">
         <v>30</v>
       </c>
@@ -2547,7 +2550,7 @@
       </c>
       <c r="I33" s="31"/>
     </row>
-    <row r="34" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="19">
@@ -2555,42 +2558,50 @@
       </c>
       <c r="D34" s="20"/>
       <c r="E34" s="20"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-    </row>
-    <row r="35" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="34" t="s">
+      <c r="F34" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="H34" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="I34" s="48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="91" t="s">
         <v>126</v>
       </c>
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="91" t="s">
         <v>127</v>
       </c>
-      <c r="C35" s="35">
+      <c r="C35" s="92">
         <v>32</v>
       </c>
-      <c r="D35" s="36" t="s">
+      <c r="D35" s="93" t="s">
         <v>183</v>
       </c>
-      <c r="E35" s="36" t="s">
+      <c r="E35" s="93" t="s">
         <v>185</v>
       </c>
-      <c r="F35" s="36" t="s">
+      <c r="F35" s="93" t="s">
         <v>146</v>
       </c>
-      <c r="G35" s="36" t="s">
+      <c r="G35" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="H35" s="36" t="s">
+      <c r="H35" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="I35" s="36" t="s">
+      <c r="I35" s="93" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="44" t="s">
+    <row r="36" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="51" t="s">
         <v>47</v>
       </c>
       <c r="B36" s="11" t="s">
@@ -2616,68 +2627,68 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
-      <c r="B37" s="41"/>
+    <row r="37" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="51"/>
+      <c r="B37" s="38"/>
       <c r="C37" s="19">
         <v>34</v>
       </c>
       <c r="D37" s="20"/>
       <c r="E37" s="20"/>
-      <c r="F37" s="43" t="s">
+      <c r="F37" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-    </row>
-    <row r="38" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
-      <c r="B38" s="41"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+    </row>
+    <row r="38" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="51"/>
+      <c r="B38" s="38"/>
       <c r="C38" s="19">
         <v>35</v>
       </c>
       <c r="D38" s="20"/>
       <c r="E38" s="20"/>
-      <c r="F38" s="43" t="s">
+      <c r="F38" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-    </row>
-    <row r="39" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="44"/>
-      <c r="B39" s="41"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+    </row>
+    <row r="39" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="51"/>
+      <c r="B39" s="38"/>
       <c r="C39" s="19">
         <v>36</v>
       </c>
       <c r="D39" s="20"/>
       <c r="E39" s="20"/>
-      <c r="F39" s="43" t="s">
+      <c r="F39" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-    </row>
-    <row r="40" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="44"/>
-      <c r="B40" s="41"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="48"/>
+    </row>
+    <row r="40" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="51"/>
+      <c r="B40" s="38"/>
       <c r="C40" s="19">
         <v>37</v>
       </c>
       <c r="D40" s="20"/>
       <c r="E40" s="20"/>
-      <c r="F40" s="43" t="s">
+      <c r="F40" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-    </row>
-    <row r="41" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="44"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="48"/>
+    </row>
+    <row r="41" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="51"/>
       <c r="B41" s="11" t="s">
         <v>28</v>
       </c>
@@ -2699,23 +2710,23 @@
       </c>
       <c r="I41" s="33"/>
     </row>
-    <row r="42" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="44"/>
-      <c r="B42" s="41"/>
+    <row r="42" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="51"/>
+      <c r="B42" s="38"/>
       <c r="C42" s="19">
         <v>39</v>
       </c>
       <c r="D42" s="20"/>
       <c r="E42" s="20"/>
-      <c r="F42" s="43" t="s">
+      <c r="F42" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="G42" s="43"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="43"/>
-    </row>
-    <row r="43" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="44"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="48"/>
+    </row>
+    <row r="43" spans="1:9" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="51"/>
       <c r="B43" s="11" t="s">
         <v>103</v>
       </c>
@@ -2739,19 +2750,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:H2"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="A4:A13"/>
-    <mergeCell ref="B4:B13"/>
     <mergeCell ref="F25:I25"/>
     <mergeCell ref="F19:I19"/>
     <mergeCell ref="F37:I37"/>
@@ -2763,76 +2761,92 @@
     <mergeCell ref="F34:I34"/>
     <mergeCell ref="A30:A33"/>
     <mergeCell ref="B30:B33"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:H2"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" verticalDpi="597" r:id="rId1"/>
+  <pageSetup scale="99" fitToWidth="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036672A4-8952-44C6-9E0D-0D4906E8D835}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="8" width="8.7109375" customWidth="1"/>
+    <col min="1" max="8" width="8.7265625" customWidth="1"/>
     <col min="9" max="10" width="2" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.140625" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="e" vm="1">
+    <row r="1" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="44" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="49" t="str">
+      <c r="B1" s="44"/>
+      <c r="C1" s="46" t="str">
         <f>Channels!C1</f>
         <v>Full Band Setup</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="74" t="str">
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="78" t="str">
         <f>Channels!I1</f>
         <v>🌐 theperfectstrangers.band</v>
       </c>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
     </row>
-    <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="76" t="str">
+    <row r="2" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="81" t="str">
         <f ca="1">Channels!I2</f>
-        <v>Date Updated: 2026.02.14</v>
-      </c>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-    </row>
-    <row r="3" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Date Updated: 2026.02.15</v>
+      </c>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+    </row>
+    <row r="3" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="60" t="s">
         <v>104</v>
       </c>
@@ -2844,13 +2858,13 @@
       <c r="G3" s="60"/>
       <c r="H3" s="60"/>
       <c r="I3" s="2"/>
-      <c r="K3" s="79" t="s">
+      <c r="K3" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-    </row>
-    <row r="4" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+    </row>
+    <row r="4" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="60" t="s">
         <v>0</v>
       </c>
@@ -2862,15 +2876,15 @@
       <c r="G4" s="60"/>
       <c r="H4" s="60"/>
       <c r="I4" s="2"/>
-      <c r="K4" s="90">
+      <c r="K4" s="76">
         <v>1</v>
       </c>
-      <c r="L4" s="80" t="s">
+      <c r="L4" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="81"/>
-    </row>
-    <row r="5" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M4" s="67"/>
+    </row>
+    <row r="5" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -2896,59 +2910,59 @@
         <v>8</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="83"/>
-    </row>
-    <row r="6" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="62" t="s">
+      <c r="K5" s="77"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="69"/>
+    </row>
+    <row r="6" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="62" t="s">
+      <c r="E6" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="F6" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="62" t="s">
+      <c r="G6" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="71" t="s">
+      <c r="H6" s="82" t="s">
         <v>10</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="K6" s="88">
+      <c r="K6" s="74">
         <v>2</v>
       </c>
-      <c r="L6" s="84" t="s">
+      <c r="L6" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="M6" s="85"/>
-    </row>
-    <row r="7" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="62"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="72"/>
+      <c r="M6" s="71"/>
+    </row>
+    <row r="7" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="80"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="83"/>
       <c r="I7" s="2"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="87"/>
-    </row>
-    <row r="8" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="75"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="73"/>
+    </row>
+    <row r="8" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -2958,15 +2972,15 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="2"/>
-      <c r="K8" s="90">
+      <c r="K8" s="76">
         <v>3</v>
       </c>
-      <c r="L8" s="80" t="s">
+      <c r="L8" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="81"/>
-    </row>
-    <row r="9" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M8" s="67"/>
+    </row>
+    <row r="9" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -2992,57 +3006,57 @@
         <v>16</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="83"/>
-    </row>
-    <row r="10" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="71" t="s">
+      <c r="K9" s="77"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="69"/>
+    </row>
+    <row r="10" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
       <c r="I10" s="2"/>
-      <c r="K10" s="88">
+      <c r="K10" s="74">
         <v>4</v>
       </c>
-      <c r="L10" s="84" t="s">
+      <c r="L10" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="M10" s="85"/>
-    </row>
-    <row r="11" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="72"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
+      <c r="M10" s="71"/>
+    </row>
+    <row r="11" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="83"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
       <c r="I11" s="2"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="87"/>
-    </row>
-    <row r="12" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="75"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="73"/>
+    </row>
+    <row r="12" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I12" s="2"/>
-      <c r="K12" s="90">
+      <c r="K12" s="76">
         <v>5</v>
       </c>
-      <c r="L12" s="80" t="s">
+      <c r="L12" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="M12" s="81"/>
-    </row>
-    <row r="13" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M12" s="67"/>
+    </row>
+    <row r="13" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>17</v>
       </c>
@@ -3068,54 +3082,54 @@
         <v>24</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="83"/>
-    </row>
-    <row r="14" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="77" t="s">
+      <c r="K13" s="77"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="69"/>
+    </row>
+    <row r="14" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="B14" s="77" t="s">
+      <c r="B14" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="77" t="s">
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="77" t="s">
+      <c r="F14" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="73"/>
-      <c r="H14" s="77" t="s">
+      <c r="G14" s="54"/>
+      <c r="H14" s="55" t="s">
         <v>103</v>
       </c>
       <c r="I14" s="2"/>
-      <c r="K14" s="88">
+      <c r="K14" s="74">
         <v>6</v>
       </c>
-      <c r="L14" s="84"/>
-      <c r="M14" s="85"/>
-    </row>
-    <row r="15" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="77"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="77"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="71"/>
+    </row>
+    <row r="15" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="55"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="55"/>
       <c r="I15" s="2"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="87"/>
-    </row>
-    <row r="16" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K15" s="75"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="73"/>
+    </row>
+    <row r="16" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:13" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="60" t="s">
         <v>4</v>
       </c>
@@ -3128,7 +3142,7 @@
       <c r="H17" s="60"/>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:13" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="14.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -3154,35 +3168,35 @@
         <v>8</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="K18" s="78" t="s">
+      <c r="K18" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="L18" s="78"/>
-      <c r="M18" s="78"/>
-    </row>
-    <row r="19" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="57" t="s">
+      <c r="L18" s="64"/>
+      <c r="M18" s="64"/>
+    </row>
+    <row r="19" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="D19" s="58" t="s">
+      <c r="D19" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="E19" s="59" t="s">
+      <c r="E19" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="F19" s="59" t="s">
+      <c r="F19" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="G19" s="75" t="s">
+      <c r="G19" s="79" t="s">
         <v>116</v>
       </c>
-      <c r="H19" s="75" t="s">
+      <c r="H19" s="79" t="s">
         <v>117</v>
       </c>
       <c r="I19" s="2"/>
@@ -3196,15 +3210,15 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="57"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
+    <row r="20" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="58"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
       <c r="I20" s="2"/>
       <c r="K20" t="s">
         <v>90</v>
@@ -3216,7 +3230,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -3236,7 +3250,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="14.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="I22" s="2"/>
       <c r="K22" t="s">
         <v>92</v>
@@ -3248,7 +3262,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="60" t="s">
         <v>105</v>
       </c>
@@ -3270,7 +3284,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="60" t="s">
         <v>0</v>
       </c>
@@ -3292,7 +3306,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -3328,45 +3342,45 @@
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="92" t="s">
+    <row r="26" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="58" t="s">
+      <c r="C26" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="67" t="s">
+      <c r="D26" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="E26" s="67" t="s">
+      <c r="E26" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="F26" s="67" t="s">
+      <c r="F26" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="G26" s="59" t="s">
+      <c r="G26" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="H26" s="63" t="s">
+      <c r="H26" s="84" t="s">
         <v>136</v>
       </c>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="93"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="63"/>
+    <row r="27" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="63"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="84"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -3377,7 +3391,7 @@
       <c r="H28" s="10"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>9</v>
       </c>
@@ -3404,48 +3418,48 @@
       </c>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="63" t="s">
+    <row r="30" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="84" t="s">
         <v>165</v>
       </c>
-      <c r="B30" s="63" t="s">
+      <c r="B30" s="84" t="s">
         <v>166</v>
       </c>
-      <c r="C30" s="69" t="s">
+      <c r="C30" s="85" t="s">
         <v>137</v>
       </c>
-      <c r="D30" s="64" t="s">
+      <c r="D30" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="64" t="s">
+      <c r="E30" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="F30" s="64" t="s">
+      <c r="F30" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="G30" s="64" t="s">
+      <c r="G30" s="87" t="s">
         <v>167</v>
       </c>
-      <c r="H30" s="66" t="s">
+      <c r="H30" s="89" t="s">
         <v>146</v>
       </c>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="63"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="66"/>
+    <row r="31" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="84"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="89"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="60" t="s">
         <v>4</v>
       </c>
@@ -3458,7 +3472,7 @@
       <c r="H33" s="60"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>1</v>
       </c>
@@ -3485,46 +3499,110 @@
       </c>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="62" t="s">
+    <row r="35" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="B35" s="62" t="s">
+      <c r="B35" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="63" t="s">
+      <c r="C35" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="D35" s="63" t="s">
+      <c r="D35" s="84" t="s">
         <v>139</v>
       </c>
-      <c r="E35" s="61" t="s">
+      <c r="E35" s="90" t="s">
         <v>113</v>
       </c>
-      <c r="F35" s="61" t="s">
+      <c r="F35" s="90" t="s">
         <v>120</v>
       </c>
-      <c r="G35" s="61" t="s">
+      <c r="G35" s="90" t="s">
         <v>99</v>
       </c>
-      <c r="H35" s="61" t="s">
+      <c r="H35" s="90" t="s">
         <v>121</v>
       </c>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="62"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
+    <row r="36" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="80"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="90"/>
+      <c r="F36" s="90"/>
+      <c r="G36" s="90"/>
+      <c r="H36" s="90"/>
       <c r="I36" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:J2"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="L4:M5"/>
+    <mergeCell ref="L6:M7"/>
+    <mergeCell ref="L8:M9"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:M15"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="F26:F27"/>
@@ -3541,74 +3619,10 @@
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A23:H23"/>
     <mergeCell ref="A24:H24"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="L4:M5"/>
-    <mergeCell ref="L6:M7"/>
-    <mergeCell ref="L8:M9"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L10:M11"/>
-    <mergeCell ref="L12:M13"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:M15"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:J2"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="97" fitToWidth="0" orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
